--- a/data/lit_review/round1/raw/taxa_key_for_species_not_in_sealifebase.xlsx
+++ b/data/lit_review/round1/raw/taxa_key_for_species_not_in_sealifebase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E804764-A522-5940-BE3B-6802FE74C7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA77A471-3116-7742-9EAD-E54AD6A00153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="21300" windowHeight="20180" xr2:uid="{A045417D-CB43-1843-BEFE-2310C9DE24D2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>type</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>Sinotaia quadrata</t>
+  </si>
+  <si>
+    <t>Magallana gigas</t>
+  </si>
+  <si>
+    <t>gigas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ostreidae</t>
   </si>
 </sst>
 </file>
@@ -502,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B39A47-EA97-F543-B7AB-EA2B3EA5D395}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,6 +640,29 @@
         <v>28</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
